--- a/Otros documentos/Documentación/Trazabilidad_Historias_RF_RNF.xlsx
+++ b/Otros documentos/Documentación/Trazabilidad_Historias_RF_RNF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\archivos capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okaed\OneDrive\Desktop\repos\CatchAI\Otros documentos\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A499E9-0F99-4C83-8F70-26DDEAA9F4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6280DD15-86EF-4204-804B-2FE7A104B926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trazabilidad" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,11 @@
     <sheet name="Catálogo_RNF" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -63,21 +68,6 @@
     <t>H9</t>
   </si>
   <si>
-    <t>Como persona sorda, quiero recibir la traducción de un video en LSCh, para comprender la información transmitida.</t>
-  </si>
-  <si>
-    <t>Como persona sorda, quiero que las palabras no reconocidas se deletreen en LSCh, para no perder el sentido del mensaje.</t>
-  </si>
-  <si>
-    <t>Como persona sorda, quiero que el avatar tenga un estilo uniforme y semi-formal, para que la información sea clara y no distraiga.</t>
-  </si>
-  <si>
-    <t>Como locutor, quiero enviar un video con mi voz y obtener la traducción en LSCh, para que mi mensaje llegue a la comunidad sorda.</t>
-  </si>
-  <si>
-    <t>Como administrador técnico, quiero que cada procesamiento genere un log con fecha y estado, para llevar trazabilidad del sistema.</t>
-  </si>
-  <si>
     <t>Como administrador técnico, quiero que el sistema sea ejecutable en computadores locales, para no depender de la nube.</t>
   </si>
   <si>
@@ -256,6 +246,21 @@
   </si>
   <si>
     <t>Reproducibilidad de resultados en distintos equipos</t>
+  </si>
+  <si>
+    <t>Como operador/mediador de comunicación (asistente de producción), quiero recibir la representación visual en Español Signado de un video, para comprender la información transmitida.</t>
+  </si>
+  <si>
+    <t>Como operador/mediador de comunicación (asistente de producción), quiero que las palabras no reconocidas sean deletreadas visualmente, para no perder el sentido del mensaje.</t>
+  </si>
+  <si>
+    <t>Como operador/mediador de comunicación (asistente de producción), quiero que el avatar mantenga un estilo realista, uniforme y semi-formal, para que la información sea clara y no distraiga.</t>
+  </si>
+  <si>
+    <t>Como locutor/animador, quiero enviar un video con mi voz y obtener su representación visual en Español Signado, para que mi mensaje llegue de forma más accesible.</t>
+  </si>
+  <si>
+    <t>Como administrador técnico, quiero que parte del procesamiento genere un log con fecha y estado, para llevar trazabilidad del sistema.</t>
   </si>
 </sst>
 </file>
@@ -631,19 +636,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="61.44140625" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.84375" customWidth="1"/>
+    <col min="2" max="2" width="61.4609375" customWidth="1"/>
+    <col min="3" max="3" width="32.3046875" customWidth="1"/>
+    <col min="4" max="4" width="32.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,116 +665,116 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -785,81 +790,81 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="67.44140625" customWidth="1"/>
+    <col min="2" max="2" width="67.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B9" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -871,117 +876,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>55</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>56</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>57</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>58</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>59</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B13" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
